--- a/data-raw/journal.pone.0164255.s005.XLSX
+++ b/data-raw/journal.pone.0164255.s005.XLSX
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0787FF-745F-48D8-8FE7-FCC954155A43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="690"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="30" r:id="rId1"/>
@@ -242,37 +243,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -366,60 +367,60 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -427,12 +428,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,9 +511,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.53125" style="8" customWidth="1"/>
     <col min="2" max="3" width="9" style="8"/>
@@ -751,7 +789,7 @@
     <col min="34" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -858,7 +896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="13.9" thickTop="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -965,7 +1003,7 @@
         <v>2998.2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -1072,7 +1110,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1179,7 +1217,7 @@
         <v>7054.4</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -1286,7 +1324,7 @@
         <v>3165.8</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35">
       <c r="A6" s="9">
         <v>0</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35">
       <c r="A7" s="9">
         <v>0</v>
       </c>
@@ -1500,7 +1538,7 @@
         <v>3474.5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -1607,7 +1645,7 @@
         <v>1570.9</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -1821,7 +1859,7 @@
         <v>2998.9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -1928,7 +1966,7 @@
         <v>2468.1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -2035,7 +2073,7 @@
         <v>2819.1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -2142,7 +2180,7 @@
         <v>3073.5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -2249,7 +2287,7 @@
         <v>2608.9</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35">
       <c r="A15" s="5">
         <v>0</v>
       </c>
@@ -2356,7 +2394,7 @@
         <v>2590.6</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -2463,7 +2501,7 @@
         <v>2913.8</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -2570,7 +2608,7 @@
         <v>2609.4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35">
       <c r="A18" s="5">
         <v>0</v>
       </c>
@@ -2677,7 +2715,7 @@
         <v>3411.5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -2784,7 +2822,7 @@
         <v>2862.9</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -2891,7 +2929,7 @@
         <v>2747.9</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -2998,7 +3036,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35">
       <c r="A22" s="5">
         <v>0</v>
       </c>
@@ -3105,7 +3143,7 @@
         <v>2823.7</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35">
       <c r="A23" s="5">
         <v>0</v>
       </c>
@@ -3212,7 +3250,7 @@
         <v>3493.3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35">
       <c r="A24" s="5">
         <v>0</v>
       </c>
@@ -3319,7 +3357,7 @@
         <v>2291.5</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35">
       <c r="A25" s="9">
         <v>0</v>
       </c>
@@ -3426,7 +3464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35">
       <c r="A26" s="9">
         <v>0</v>
       </c>
@@ -3533,7 +3571,7 @@
         <v>2663.5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35">
       <c r="A27" s="5">
         <v>0</v>
       </c>
@@ -3640,7 +3678,7 @@
         <v>2853.6</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -3747,7 +3785,7 @@
         <v>2634.6</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35">
       <c r="A29" s="5">
         <v>0</v>
       </c>
@@ -3854,7 +3892,7 @@
         <v>2643.1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -3961,7 +3999,7 @@
         <v>2725.5</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35">
       <c r="A31" s="5">
         <v>0</v>
       </c>
@@ -4068,7 +4106,7 @@
         <v>2934.3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35">
       <c r="A32" s="5">
         <v>0</v>
       </c>
@@ -4175,7 +4213,7 @@
         <v>2285.6999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35">
       <c r="A33" s="5">
         <v>0</v>
       </c>
@@ -4282,7 +4320,7 @@
         <v>3033.7</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35">
       <c r="A34" s="9">
         <v>0</v>
       </c>
@@ -4389,7 +4427,7 @@
         <v>3421.9</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35">
       <c r="A35" s="9">
         <v>0</v>
       </c>
@@ -4496,7 +4534,7 @@
         <v>1611.5</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -4603,7 +4641,7 @@
         <v>3195.5</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -4710,7 +4748,7 @@
         <v>2897.5</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -4817,7 +4855,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -4924,7 +4962,7 @@
         <v>2852.7</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -5031,7 +5069,7 @@
         <v>2137.6999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -5138,7 +5176,7 @@
         <v>2829.6</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -5245,7 +5283,7 @@
         <v>3046.6</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -5352,7 +5390,7 @@
         <v>2691.3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -5459,7 +5497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -5566,7 +5604,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35">
       <c r="A46" s="9">
         <v>0</v>
       </c>
@@ -5673,7 +5711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35">
       <c r="A47" s="9">
         <v>0</v>
       </c>
@@ -5780,7 +5818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -5994,7 +6032,7 @@
         <v>2054.6</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35">
       <c r="A50" s="5">
         <v>0</v>
       </c>
@@ -6101,7 +6139,7 @@
         <v>2774.9</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35">
       <c r="A51" s="5">
         <v>0</v>
       </c>
@@ -6208,7 +6246,7 @@
         <v>3159.7</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35">
       <c r="A52" s="5">
         <v>0</v>
       </c>
@@ -6315,7 +6353,7 @@
         <v>3201.8</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35">
       <c r="A53" s="5">
         <v>0</v>
       </c>
@@ -6422,7 +6460,7 @@
         <v>2459.9</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35">
       <c r="A54" s="5">
         <v>0</v>
       </c>
@@ -6529,7 +6567,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35">
       <c r="A55" s="5">
         <v>0</v>
       </c>
@@ -6636,7 +6674,7 @@
         <v>2466.6</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:35" ht="13.9" thickBot="1">
       <c r="A56" s="11">
         <v>0</v>
       </c>
@@ -6743,7 +6781,7 @@
         <v>2184.4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" ht="13.9" thickTop="1">
       <c r="A57" s="9">
         <v>1</v>
       </c>
@@ -6850,7 +6888,7 @@
         <v>3043.1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -6957,7 +6995,7 @@
         <v>2326.8000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -7064,7 +7102,7 @@
         <v>2662.7</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -7171,7 +7209,7 @@
         <v>932.5</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -7278,7 +7316,7 @@
         <v>7248.4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -7385,7 +7423,7 @@
         <v>5328.2</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -7492,7 +7530,7 @@
         <v>7068.5</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -7599,7 +7637,7 @@
         <v>3482.5</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -7706,7 +7744,7 @@
         <v>2970.9</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -7813,7 +7851,7 @@
         <v>2554.4</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -7920,7 +7958,7 @@
         <v>2439.4</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -8027,7 +8065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -8134,7 +8172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -8241,7 +8279,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -8348,7 +8386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35">
       <c r="A72" s="5">
         <v>1</v>
       </c>
@@ -8455,7 +8493,7 @@
         <v>2131.1999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -8562,7 +8600,7 @@
         <v>2986.7</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35">
       <c r="A74" s="5">
         <v>1</v>
       </c>
@@ -8669,7 +8707,7 @@
         <v>2967.3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35">
       <c r="A75" s="5">
         <v>1</v>
       </c>
@@ -8776,7 +8814,7 @@
         <v>2539.6</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35">
       <c r="A76" s="5">
         <v>1</v>
       </c>
@@ -8883,7 +8921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -8990,7 +9028,7 @@
         <v>3451.4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -9097,7 +9135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35">
       <c r="A79" s="9">
         <v>1</v>
       </c>
@@ -9204,7 +9242,7 @@
         <v>2567.1</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -9311,7 +9349,7 @@
         <v>3699.4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35">
       <c r="A81" s="5">
         <v>1</v>
       </c>
@@ -9418,7 +9456,7 @@
         <v>3421.9</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35">
       <c r="A82" s="5">
         <v>1</v>
       </c>
@@ -9525,7 +9563,7 @@
         <v>2024.8</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35">
       <c r="A83" s="5">
         <v>1</v>
       </c>
@@ -9632,7 +9670,7 @@
         <v>2973.9</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35">
       <c r="A84" s="5">
         <v>1</v>
       </c>
@@ -9739,7 +9777,7 @@
         <v>2408.1</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35">
       <c r="A85" s="5">
         <v>1</v>
       </c>
@@ -9846,7 +9884,7 @@
         <v>3044.2</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -9953,7 +9991,7 @@
         <v>2074.6</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -10060,7 +10098,7 @@
         <v>2530.5</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35">
       <c r="A88" s="5">
         <v>1</v>
       </c>
@@ -10167,7 +10205,7 @@
         <v>2948.7</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -10274,7 +10312,7 @@
         <v>3571.2</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35">
       <c r="A90" s="5">
         <v>1</v>
       </c>
@@ -10381,7 +10419,7 @@
         <v>4107.2</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -10488,7 +10526,7 @@
         <v>3191.9</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35">
       <c r="A92" s="5">
         <v>1</v>
       </c>
@@ -10595,7 +10633,7 @@
         <v>2628.8</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35">
       <c r="A93" s="9">
         <v>1</v>
       </c>
@@ -10702,7 +10740,7 @@
         <v>3598.8</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -10809,7 +10847,7 @@
         <v>4389.2</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35">
       <c r="A95" s="5">
         <v>1</v>
       </c>
@@ -10916,7 +10954,7 @@
         <v>1999.9</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35">
       <c r="A96" s="5">
         <v>1</v>
       </c>
@@ -11023,7 +11061,7 @@
         <v>2625.9</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35">
       <c r="A97" s="9">
         <v>1</v>
       </c>
@@ -11130,7 +11168,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -11237,7 +11275,7 @@
         <v>2906.9</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -11344,7 +11382,7 @@
         <v>3002.8</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -11451,7 +11489,7 @@
         <v>2434.1999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -11558,7 +11596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:35">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -11665,7 +11703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:35">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -11772,7 +11810,7 @@
         <v>3074.6</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:35" ht="13.9" thickBot="1">
       <c r="A104" s="14">
         <v>1</v>
       </c>
@@ -11879,7 +11917,7 @@
         <v>2348.1</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="13.9" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:35" ht="13.9" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
